--- a/fuentes/contenidos/grado09/guion01/EsqueletoGuion_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/EsqueletoGuion_MA_09_01_CO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4410" tabRatio="729" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7230" tabRatio="729" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="82">
   <si>
     <t>FICHA</t>
   </si>
@@ -129,13 +129,166 @@
     <t>MA_09_01_CO</t>
   </si>
   <si>
-    <t>El conjunto de los números reales  constituye un todo infinito,  se puede asignar a cada punto de la recta un único número real. Además con sus elementos se pueden establecer diferentes relaciones,  operaciones y propiedades. Conoce cómo se pueden establecer estar relaciones, operaciones y propiedades entre estos elementos.</t>
-  </si>
-  <si>
     <t>Educación Básica Secundaria</t>
   </si>
   <si>
     <t xml:space="preserve">Relaciona conjuntos numéricos con su definición  </t>
+  </si>
+  <si>
+    <t>El conjunto de los números reales constituye un todo infinito. A cada punto de la recta se puede asignar un único número real. Además, con sus elementos se pueden establecer diferentes relaciones, operaciones y propiedades. Conoce cómo se pueden establecer las relaciones, operaciones y propiedades entre los elementos de los números reales.</t>
+  </si>
+  <si>
+    <t>Practica la conversión de una fracción a número decimal</t>
+  </si>
+  <si>
+    <t>Practica la conversión de un número decimal a fracción</t>
+  </si>
+  <si>
+    <t>Resuelve situaciones que involucran números racionales</t>
+  </si>
+  <si>
+    <t>Una noción de número irracional y breve historia</t>
+  </si>
+  <si>
+    <t>Resuelve situaciones problema con números irracionales</t>
+  </si>
+  <si>
+    <t>Practica con los números reales y sus subconjuntos</t>
+  </si>
+  <si>
+    <t>Resuelve situaciones con intervalos de números reales</t>
+  </si>
+  <si>
+    <t>La recta real y el axioma de completitud</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Números reales e intervalos de números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practica las operaciones con números reales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practica las propiedades de la adición de números reales </t>
+  </si>
+  <si>
+    <t>¿Qué propiedad de la multiplicación de números reales se aplica?</t>
+  </si>
+  <si>
+    <t>Practica las propiedades de la adición y la multiplicación de números reales</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Operaciones y propiedades de las operaciones de números reales</t>
+  </si>
+  <si>
+    <t>Competencias: comprensión del conjunto de los números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa conceptual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación </t>
+  </si>
+  <si>
+    <t>sí</t>
+  </si>
+  <si>
+    <t>Comprende el conjunto de los números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba tus conocimientos del conjunto de los números reales </t>
+  </si>
+  <si>
+    <r>
+      <t>Aproximación de números reales; el precio por aproximarlos es el error</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcula el error absoluto y el error relativo </t>
+  </si>
+  <si>
+    <t>Los intervalos y tipos de intervalos en la recta real</t>
+  </si>
+  <si>
+    <t>Practica la representación de intervalos en la recta real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los conjuntos numéricos </t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Recuerda</t>
+  </si>
+  <si>
+    <t>Practica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conjunto de los números racionales </t>
+  </si>
+  <si>
+    <t>Destacado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conjunto de los números irracionales </t>
+  </si>
+  <si>
+    <t>Profundiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los números reales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las aproximaciones de un número real </t>
+  </si>
+  <si>
+    <t>Los intervalos de números reales</t>
+  </si>
+  <si>
+    <t>La recta real</t>
+  </si>
+  <si>
+    <t>Consolidación</t>
+  </si>
+  <si>
+    <t>Las operaciones con números reales</t>
+  </si>
+  <si>
+    <t>La adición y la sustracción de números reales</t>
+  </si>
+  <si>
+    <t>Las propiedades de la adición de números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La multiplicación y la división de números reales </t>
+  </si>
+  <si>
+    <t>Las propiedades de la multiplicación de números reales</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
   </si>
 </sst>
 </file>
@@ -208,13 +361,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,25 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,18 +401,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,21 +442,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -731,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -760,74 +875,71 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1511,7 +1623,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,22 +1732,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="22">
         <v>7</v>
       </c>
       <c r="G2"/>
@@ -1646,106 +1758,110 @@
       <c r="L2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="28">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="22">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="22">
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,9 +1909,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>34</v>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -1805,146 +1921,214 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C9" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
@@ -1959,16 +2143,16 @@
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A2:C65">
     <sortCondition ref="C2:C65"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1982,10 +2166,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C26" sqref="C26:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,187 +2190,309 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="7"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="32"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="31"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="31"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="31"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="31"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="31"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="31"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="31"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="32"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="31"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="31"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="32"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="33"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="31"/>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="31"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="34"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="31"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="31"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" t="s">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="19"/>
+      <c r="C26"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="19"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="19"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="19"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="19"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="19"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="19"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="19"/>
+      <c r="C33"/>
     </row>
   </sheetData>
   <sortState ref="A2:C38">
@@ -2205,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,8 +2522,10 @@
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.28515625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="17.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="64.140625" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2252,686 +2560,1438 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="15"/>
+      <c r="A3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="A4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="15"/>
+      <c r="A6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="A7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="A8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="A10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="A11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="15"/>
+      <c r="A12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="A13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="23"/>
+      <c r="A15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="23"/>
+      <c r="A19" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="A20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
+      <c r="A21" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="A22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="A23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="23"/>
+      <c r="A25" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="A26" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="A30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="25"/>
+      <c r="A31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="A32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="A33" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="A34" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="A35" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
+      <c r="A36" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="A37" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="A38" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="25"/>
+      <c r="A39" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="A40" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="25"/>
+      <c r="A41" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="17"/>
+      <c r="A42" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="17"/>
+      <c r="A43" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="40"/>
+      <c r="I43" s="38"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="17"/>
+      <c r="A44" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="A45" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="A46" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="17"/>
+      <c r="A47" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="17"/>
+      <c r="A49" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="17"/>
+      <c r="A50" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="A51" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="A52" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="A53" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="A54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="A55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="17"/>
+      <c r="A56" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="17"/>
+      <c r="A57" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="29"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="17"/>
+      <c r="A58" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
+      <c r="A61" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
+      <c r="A62" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="38"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="22"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuentes/contenidos/grado09/guion01/EsqueletoGuion_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/EsqueletoGuion_MA_09_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Matematicas\fuentes\contenidos\grado09\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7230" tabRatio="729" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7230" tabRatio="729" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -1695,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2168,7 +2168,7 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:C33"/>
     </sheetView>
   </sheetViews>
@@ -2513,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3132,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="35" t="s">
@@ -3151,7 +3151,7 @@
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="35" t="s">
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="35" t="s">
@@ -3193,7 +3193,7 @@
       <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="35" t="s">
@@ -3212,7 +3212,7 @@
       <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="35" t="s">
@@ -3233,7 +3233,7 @@
       <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="35" t="s">
@@ -3254,7 +3254,7 @@
       <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -3275,7 +3275,7 @@
       <c r="I36" s="36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="35" t="s">
@@ -3296,7 +3296,7 @@
       <c r="I37" s="36"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="35" t="s">
@@ -3317,7 +3317,7 @@
       <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -3338,7 +3338,7 @@
       <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="35" t="s">
@@ -3359,7 +3359,7 @@
       <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="35" t="s">
@@ -3380,7 +3380,7 @@
       <c r="I41" s="36"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="35" t="s">
@@ -3401,7 +3401,7 @@
       <c r="I42" s="38"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="35" t="s">
@@ -3422,7 +3422,7 @@
       <c r="I43" s="38"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="35" t="s">
@@ -3447,7 +3447,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="35" t="s">
@@ -3472,7 +3472,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="35" t="s">
@@ -3515,7 +3515,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>23</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>23</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="H64" s="26"/>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>23</v>
       </c>
@@ -3874,7 +3874,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="37" t="s">
@@ -3891,7 +3891,7 @@
       <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="37" t="s">
@@ -3912,7 +3912,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B68" s="37" t="s">
@@ -3931,7 +3931,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="36" t="s">

--- a/fuentes/contenidos/grado09/guion01/EsqueletoGuion_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/EsqueletoGuion_MA_09_01_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado09\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7230" tabRatio="729" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="7230" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="77">
   <si>
     <t>FICHA</t>
   </si>
@@ -192,34 +192,7 @@
     <t>sí</t>
   </si>
   <si>
-    <t>Comprende el conjunto de los números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prueba tus conocimientos del conjunto de los números reales </t>
-  </si>
-  <si>
-    <r>
-      <t>Aproximación de números reales; el precio por aproximarlos es el error</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Calcula el error absoluto y el error relativo </t>
-  </si>
-  <si>
-    <t>Los intervalos y tipos de intervalos en la recta real</t>
-  </si>
-  <si>
-    <t>Practica la representación de intervalos en la recta real</t>
   </si>
   <si>
     <t xml:space="preserve">Los conjuntos numéricos </t>
@@ -295,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,13 +332,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1622,17 +1588,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="104.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="104.265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +1630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -1699,19 +1665,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.73046875" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1723,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>21</v>
       </c>
@@ -1777,7 +1743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
@@ -1817,7 +1783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
@@ -1837,7 +1803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
@@ -1857,20 +1823,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F9" s="4"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G12" s="7"/>
     </row>
   </sheetData>
@@ -1889,16 +1855,16 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.1328125" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>33</v>
       </c>
@@ -1920,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -1931,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -1942,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>37</v>
       </c>
@@ -1953,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>38</v>
       </c>
@@ -1964,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>39</v>
       </c>
@@ -1975,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>40</v>
       </c>
@@ -1986,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>42</v>
       </c>
@@ -1997,7 +1963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>41</v>
       </c>
@@ -2008,7 +1974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>43</v>
       </c>
@@ -2019,7 +1985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>44</v>
       </c>
@@ -2030,7 +1996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>45</v>
       </c>
@@ -2041,7 +2007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
@@ -2052,7 +2018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>47</v>
       </c>
@@ -2063,7 +2029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.65" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>48</v>
       </c>
@@ -2074,7 +2040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
@@ -2085,7 +2051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="19" t="s">
         <v>50</v>
       </c>
@@ -2096,7 +2062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
         <v>51</v>
       </c>
@@ -2107,42 +2073,42 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="17"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="17"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="17"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="17"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="17"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2168,18 +2134,18 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C33"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="92.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.265625" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2201,7 +2167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2212,7 +2178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2223,7 +2189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2234,7 +2200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2245,7 +2211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2256,18 +2222,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2278,40 +2244,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2322,29 +2288,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2355,7 +2321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2366,7 +2332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2377,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2388,7 +2354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2399,7 +2365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2410,7 +2376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2421,7 +2387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2432,7 +2398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2443,7 +2409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2454,42 +2420,42 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="19"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="19"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="19"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="19"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="19"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="19"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="19"/>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="19"/>
       <c r="C33"/>
@@ -2513,24 +2479,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="E17" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="64.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.86328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="64.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -2559,15 +2525,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
@@ -2576,15 +2542,15 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -2593,15 +2559,15 @@
       <c r="H3" s="30"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
@@ -2610,15 +2576,15 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="15"/>
@@ -2627,15 +2593,15 @@
       <c r="H5" s="13"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="15"/>
@@ -2648,114 +2614,114 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="24"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="24"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="24"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="24"/>
@@ -2766,19 +2732,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -2789,19 +2755,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -2812,95 +2778,95 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="22"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="22"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="22"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="22"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -2911,19 +2877,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -2934,76 +2900,76 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="13"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
@@ -3014,19 +2980,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -3037,19 +3003,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -3060,44 +3026,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
     </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>26</v>
@@ -3106,23 +3072,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>27</v>
@@ -3131,38 +3097,38 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -3173,271 +3139,271 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C35" s="36"/>
       <c r="D35" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="36"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E40" s="36"/>
       <c r="F40" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H41" s="40"/>
       <c r="I41" s="36"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="38"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="38"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>28</v>
@@ -3446,23 +3412,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>29</v>
@@ -3471,23 +3437,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>41</v>
@@ -3496,38 +3462,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -3538,15 +3504,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="22"/>
@@ -3555,15 +3521,15 @@
       <c r="H49" s="25"/>
       <c r="I49" s="22"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="22"/>
@@ -3572,15 +3538,15 @@
       <c r="H50" s="25"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="22"/>
@@ -3589,15 +3555,15 @@
       <c r="H51" s="25"/>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -3606,152 +3572,152 @@
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
       <c r="I59" s="27"/>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="26"/>
@@ -3762,19 +3728,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="26"/>
@@ -3785,19 +3751,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
@@ -3808,19 +3774,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
@@ -3831,38 +3797,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="26"/>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
@@ -3873,15 +3839,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
@@ -3890,15 +3856,15 @@
       <c r="H66" s="37"/>
       <c r="I66" s="38"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D67" s="38"/>
       <c r="E67" s="38"/>
@@ -3911,15 +3877,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
@@ -3930,15 +3896,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D69" s="36"/>
       <c r="E69" s="36"/>
@@ -3949,7 +3915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -3960,7 +3926,7 @@
       <c r="H70" s="26"/>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -3971,7 +3937,7 @@
       <c r="H71" s="26"/>
       <c r="I71" s="22"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="20"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -3982,7 +3948,7 @@
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="20"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
